--- a/チョウウケン_WBS_不動産管理システム.xlsx
+++ b/チョウウケン_WBS_不動産管理システム.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d54142f8cd0a9b05/デスクトップ/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d54142f8cd0a9b05/デスクトップ/zhao/JAVA教育/不動産オブジェクト/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="29" documentId="8_{35320E32-5F36-461A-ADE4-FBC090D7C98D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1D281DE1-AAFB-406D-AD0F-9313CF1556A6}"/>
+  <xr:revisionPtr revIDLastSave="44" documentId="8_{35320E32-5F36-461A-ADE4-FBC090D7C98D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{48175B05-55B7-44DA-9C63-484BC28EAC18}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="76">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -516,6 +516,30 @@
     <t>７、ユーザー管理</t>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>完了</t>
+    <rPh sb="0" eb="2">
+      <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>着手中</t>
+    <rPh sb="0" eb="2">
+      <t>チャクシュ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>チュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>未着手</t>
+    <rPh sb="0" eb="3">
+      <t>ミチャクシュ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
@@ -523,7 +547,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="d"/>
-    <numFmt numFmtId="181" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
   <fonts count="9">
     <font>
@@ -1189,6 +1213,51 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1209,15 +1278,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1243,39 +1303,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1283,9 +1310,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2557,6 +2581,10 @@
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
+<file path=xl/persons/person1.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2826,7 +2854,7 @@
       <pane xSplit="10" ySplit="6" topLeftCell="DU7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="I18" sqref="I18"/>
+      <selection pane="bottomRight" activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.5"/>
@@ -2845,437 +2873,439 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:345" ht="18.75" customHeight="1">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="46" t="s">
+      <c r="B1" s="60"/>
+      <c r="C1" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="48"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="63"/>
       <c r="I1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="2"/>
+      <c r="J1" s="13">
+        <v>45035</v>
+      </c>
     </row>
     <row r="2" spans="1:345" ht="18.75" customHeight="1">
-      <c r="A2" s="45"/>
-      <c r="B2" s="45"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="51"/>
+      <c r="A2" s="60"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="66"/>
       <c r="I2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="J2" s="2"/>
     </row>
     <row r="4" spans="1:345" ht="19.5" customHeight="1">
-      <c r="A4" s="52" t="s">
+      <c r="A4" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="55" t="s">
+      <c r="B4" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="56"/>
-      <c r="D4" s="52" t="s">
+      <c r="C4" s="68"/>
+      <c r="D4" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="61" t="s">
+      <c r="E4" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="62"/>
-      <c r="G4" s="61" t="s">
+      <c r="F4" s="74"/>
+      <c r="G4" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="62"/>
+      <c r="H4" s="74"/>
       <c r="I4" s="4"/>
-      <c r="J4" s="52" t="s">
+      <c r="J4" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="63">
+      <c r="K4" s="50">
         <v>1</v>
       </c>
-      <c r="L4" s="64"/>
-      <c r="M4" s="64"/>
-      <c r="N4" s="64"/>
-      <c r="O4" s="64"/>
-      <c r="P4" s="64"/>
-      <c r="Q4" s="64"/>
-      <c r="R4" s="64"/>
-      <c r="S4" s="64"/>
-      <c r="T4" s="64"/>
-      <c r="U4" s="64"/>
-      <c r="V4" s="64"/>
-      <c r="W4" s="64"/>
-      <c r="X4" s="64"/>
-      <c r="Y4" s="64"/>
-      <c r="Z4" s="64"/>
-      <c r="AA4" s="64"/>
-      <c r="AB4" s="64"/>
-      <c r="AC4" s="64"/>
-      <c r="AD4" s="64"/>
-      <c r="AE4" s="64"/>
-      <c r="AF4" s="64"/>
-      <c r="AG4" s="64"/>
-      <c r="AH4" s="64"/>
-      <c r="AI4" s="64"/>
-      <c r="AJ4" s="64"/>
-      <c r="AK4" s="64"/>
-      <c r="AL4" s="64"/>
-      <c r="AM4" s="64"/>
-      <c r="AN4" s="64"/>
-      <c r="AO4" s="65"/>
-      <c r="AP4" s="63">
+      <c r="L4" s="51"/>
+      <c r="M4" s="51"/>
+      <c r="N4" s="51"/>
+      <c r="O4" s="51"/>
+      <c r="P4" s="51"/>
+      <c r="Q4" s="51"/>
+      <c r="R4" s="51"/>
+      <c r="S4" s="51"/>
+      <c r="T4" s="51"/>
+      <c r="U4" s="51"/>
+      <c r="V4" s="51"/>
+      <c r="W4" s="51"/>
+      <c r="X4" s="51"/>
+      <c r="Y4" s="51"/>
+      <c r="Z4" s="51"/>
+      <c r="AA4" s="51"/>
+      <c r="AB4" s="51"/>
+      <c r="AC4" s="51"/>
+      <c r="AD4" s="51"/>
+      <c r="AE4" s="51"/>
+      <c r="AF4" s="51"/>
+      <c r="AG4" s="51"/>
+      <c r="AH4" s="51"/>
+      <c r="AI4" s="51"/>
+      <c r="AJ4" s="51"/>
+      <c r="AK4" s="51"/>
+      <c r="AL4" s="51"/>
+      <c r="AM4" s="51"/>
+      <c r="AN4" s="51"/>
+      <c r="AO4" s="52"/>
+      <c r="AP4" s="50">
         <v>2</v>
       </c>
-      <c r="AQ4" s="64"/>
-      <c r="AR4" s="64"/>
-      <c r="AS4" s="64"/>
-      <c r="AT4" s="64"/>
-      <c r="AU4" s="64"/>
-      <c r="AV4" s="64"/>
-      <c r="AW4" s="64"/>
-      <c r="AX4" s="64"/>
-      <c r="AY4" s="64"/>
-      <c r="AZ4" s="64"/>
-      <c r="BA4" s="64"/>
-      <c r="BB4" s="64"/>
-      <c r="BC4" s="64"/>
-      <c r="BD4" s="64"/>
-      <c r="BE4" s="64"/>
-      <c r="BF4" s="64"/>
-      <c r="BG4" s="64"/>
-      <c r="BH4" s="64"/>
-      <c r="BI4" s="64"/>
-      <c r="BJ4" s="64"/>
-      <c r="BK4" s="64"/>
-      <c r="BL4" s="64"/>
-      <c r="BM4" s="64"/>
-      <c r="BN4" s="64"/>
-      <c r="BO4" s="64"/>
-      <c r="BP4" s="64"/>
-      <c r="BQ4" s="65"/>
-      <c r="BR4" s="63">
+      <c r="AQ4" s="51"/>
+      <c r="AR4" s="51"/>
+      <c r="AS4" s="51"/>
+      <c r="AT4" s="51"/>
+      <c r="AU4" s="51"/>
+      <c r="AV4" s="51"/>
+      <c r="AW4" s="51"/>
+      <c r="AX4" s="51"/>
+      <c r="AY4" s="51"/>
+      <c r="AZ4" s="51"/>
+      <c r="BA4" s="51"/>
+      <c r="BB4" s="51"/>
+      <c r="BC4" s="51"/>
+      <c r="BD4" s="51"/>
+      <c r="BE4" s="51"/>
+      <c r="BF4" s="51"/>
+      <c r="BG4" s="51"/>
+      <c r="BH4" s="51"/>
+      <c r="BI4" s="51"/>
+      <c r="BJ4" s="51"/>
+      <c r="BK4" s="51"/>
+      <c r="BL4" s="51"/>
+      <c r="BM4" s="51"/>
+      <c r="BN4" s="51"/>
+      <c r="BO4" s="51"/>
+      <c r="BP4" s="51"/>
+      <c r="BQ4" s="52"/>
+      <c r="BR4" s="50">
         <v>3</v>
       </c>
-      <c r="BS4" s="64"/>
-      <c r="BT4" s="64"/>
-      <c r="BU4" s="64"/>
-      <c r="BV4" s="64"/>
-      <c r="BW4" s="64"/>
-      <c r="BX4" s="64"/>
-      <c r="BY4" s="64"/>
-      <c r="BZ4" s="64"/>
-      <c r="CA4" s="64"/>
-      <c r="CB4" s="64"/>
-      <c r="CC4" s="64"/>
-      <c r="CD4" s="64"/>
-      <c r="CE4" s="64"/>
-      <c r="CF4" s="64"/>
-      <c r="CG4" s="64"/>
-      <c r="CH4" s="64"/>
-      <c r="CI4" s="64"/>
-      <c r="CJ4" s="64"/>
-      <c r="CK4" s="64"/>
-      <c r="CL4" s="64"/>
-      <c r="CM4" s="64"/>
-      <c r="CN4" s="64"/>
-      <c r="CO4" s="64"/>
-      <c r="CP4" s="64"/>
-      <c r="CQ4" s="64"/>
-      <c r="CR4" s="64"/>
-      <c r="CS4" s="64"/>
-      <c r="CT4" s="64"/>
-      <c r="CU4" s="64"/>
-      <c r="CV4" s="65"/>
-      <c r="CW4" s="63">
+      <c r="BS4" s="51"/>
+      <c r="BT4" s="51"/>
+      <c r="BU4" s="51"/>
+      <c r="BV4" s="51"/>
+      <c r="BW4" s="51"/>
+      <c r="BX4" s="51"/>
+      <c r="BY4" s="51"/>
+      <c r="BZ4" s="51"/>
+      <c r="CA4" s="51"/>
+      <c r="CB4" s="51"/>
+      <c r="CC4" s="51"/>
+      <c r="CD4" s="51"/>
+      <c r="CE4" s="51"/>
+      <c r="CF4" s="51"/>
+      <c r="CG4" s="51"/>
+      <c r="CH4" s="51"/>
+      <c r="CI4" s="51"/>
+      <c r="CJ4" s="51"/>
+      <c r="CK4" s="51"/>
+      <c r="CL4" s="51"/>
+      <c r="CM4" s="51"/>
+      <c r="CN4" s="51"/>
+      <c r="CO4" s="51"/>
+      <c r="CP4" s="51"/>
+      <c r="CQ4" s="51"/>
+      <c r="CR4" s="51"/>
+      <c r="CS4" s="51"/>
+      <c r="CT4" s="51"/>
+      <c r="CU4" s="51"/>
+      <c r="CV4" s="52"/>
+      <c r="CW4" s="50">
         <v>4</v>
       </c>
-      <c r="CX4" s="64"/>
-      <c r="CY4" s="64"/>
-      <c r="CZ4" s="64"/>
-      <c r="DA4" s="64"/>
-      <c r="DB4" s="64"/>
-      <c r="DC4" s="64"/>
-      <c r="DD4" s="64"/>
-      <c r="DE4" s="64"/>
-      <c r="DF4" s="64"/>
-      <c r="DG4" s="64"/>
-      <c r="DH4" s="64"/>
-      <c r="DI4" s="64"/>
-      <c r="DJ4" s="64"/>
-      <c r="DK4" s="64"/>
-      <c r="DL4" s="64"/>
-      <c r="DM4" s="64"/>
-      <c r="DN4" s="64"/>
-      <c r="DO4" s="64"/>
-      <c r="DP4" s="64"/>
-      <c r="DQ4" s="64"/>
-      <c r="DR4" s="64"/>
-      <c r="DS4" s="64"/>
-      <c r="DT4" s="64"/>
-      <c r="DU4" s="64"/>
-      <c r="DV4" s="64"/>
-      <c r="DW4" s="64"/>
-      <c r="DX4" s="64"/>
-      <c r="DY4" s="64"/>
-      <c r="DZ4" s="65"/>
-      <c r="EA4" s="63">
+      <c r="CX4" s="51"/>
+      <c r="CY4" s="51"/>
+      <c r="CZ4" s="51"/>
+      <c r="DA4" s="51"/>
+      <c r="DB4" s="51"/>
+      <c r="DC4" s="51"/>
+      <c r="DD4" s="51"/>
+      <c r="DE4" s="51"/>
+      <c r="DF4" s="51"/>
+      <c r="DG4" s="51"/>
+      <c r="DH4" s="51"/>
+      <c r="DI4" s="51"/>
+      <c r="DJ4" s="51"/>
+      <c r="DK4" s="51"/>
+      <c r="DL4" s="51"/>
+      <c r="DM4" s="51"/>
+      <c r="DN4" s="51"/>
+      <c r="DO4" s="51"/>
+      <c r="DP4" s="51"/>
+      <c r="DQ4" s="51"/>
+      <c r="DR4" s="51"/>
+      <c r="DS4" s="51"/>
+      <c r="DT4" s="51"/>
+      <c r="DU4" s="51"/>
+      <c r="DV4" s="51"/>
+      <c r="DW4" s="51"/>
+      <c r="DX4" s="51"/>
+      <c r="DY4" s="51"/>
+      <c r="DZ4" s="52"/>
+      <c r="EA4" s="50">
         <v>5</v>
       </c>
-      <c r="EB4" s="64"/>
-      <c r="EC4" s="64"/>
-      <c r="ED4" s="64"/>
-      <c r="EE4" s="64"/>
-      <c r="EF4" s="64"/>
-      <c r="EG4" s="64"/>
-      <c r="EH4" s="64"/>
-      <c r="EI4" s="64"/>
-      <c r="EJ4" s="64"/>
-      <c r="EK4" s="64"/>
-      <c r="EL4" s="64"/>
-      <c r="EM4" s="64"/>
-      <c r="EN4" s="64"/>
-      <c r="EO4" s="64"/>
-      <c r="EP4" s="64"/>
-      <c r="EQ4" s="64"/>
-      <c r="ER4" s="64"/>
-      <c r="ES4" s="64"/>
-      <c r="ET4" s="64"/>
-      <c r="EU4" s="64"/>
-      <c r="EV4" s="64"/>
-      <c r="EW4" s="64"/>
-      <c r="EX4" s="64"/>
-      <c r="EY4" s="64"/>
-      <c r="EZ4" s="64"/>
-      <c r="FA4" s="64"/>
-      <c r="FB4" s="64"/>
-      <c r="FC4" s="64"/>
-      <c r="FD4" s="64"/>
-      <c r="FE4" s="65"/>
-      <c r="FF4" s="63">
+      <c r="EB4" s="51"/>
+      <c r="EC4" s="51"/>
+      <c r="ED4" s="51"/>
+      <c r="EE4" s="51"/>
+      <c r="EF4" s="51"/>
+      <c r="EG4" s="51"/>
+      <c r="EH4" s="51"/>
+      <c r="EI4" s="51"/>
+      <c r="EJ4" s="51"/>
+      <c r="EK4" s="51"/>
+      <c r="EL4" s="51"/>
+      <c r="EM4" s="51"/>
+      <c r="EN4" s="51"/>
+      <c r="EO4" s="51"/>
+      <c r="EP4" s="51"/>
+      <c r="EQ4" s="51"/>
+      <c r="ER4" s="51"/>
+      <c r="ES4" s="51"/>
+      <c r="ET4" s="51"/>
+      <c r="EU4" s="51"/>
+      <c r="EV4" s="51"/>
+      <c r="EW4" s="51"/>
+      <c r="EX4" s="51"/>
+      <c r="EY4" s="51"/>
+      <c r="EZ4" s="51"/>
+      <c r="FA4" s="51"/>
+      <c r="FB4" s="51"/>
+      <c r="FC4" s="51"/>
+      <c r="FD4" s="51"/>
+      <c r="FE4" s="52"/>
+      <c r="FF4" s="50">
         <v>7</v>
       </c>
-      <c r="FG4" s="64"/>
-      <c r="FH4" s="64"/>
-      <c r="FI4" s="64"/>
-      <c r="FJ4" s="64"/>
-      <c r="FK4" s="64"/>
-      <c r="FL4" s="64"/>
-      <c r="FM4" s="64"/>
-      <c r="FN4" s="64"/>
-      <c r="FO4" s="64"/>
-      <c r="FP4" s="64"/>
-      <c r="FQ4" s="64"/>
-      <c r="FR4" s="64"/>
-      <c r="FS4" s="64"/>
-      <c r="FT4" s="64"/>
-      <c r="FU4" s="64"/>
-      <c r="FV4" s="64"/>
-      <c r="FW4" s="64"/>
-      <c r="FX4" s="64"/>
-      <c r="FY4" s="64"/>
-      <c r="FZ4" s="64"/>
-      <c r="GA4" s="64"/>
-      <c r="GB4" s="64"/>
-      <c r="GC4" s="64"/>
-      <c r="GD4" s="64"/>
-      <c r="GE4" s="64"/>
-      <c r="GF4" s="64"/>
-      <c r="GG4" s="64"/>
-      <c r="GH4" s="64"/>
-      <c r="GI4" s="64"/>
-      <c r="GJ4" s="65"/>
-      <c r="GK4" s="63">
+      <c r="FG4" s="51"/>
+      <c r="FH4" s="51"/>
+      <c r="FI4" s="51"/>
+      <c r="FJ4" s="51"/>
+      <c r="FK4" s="51"/>
+      <c r="FL4" s="51"/>
+      <c r="FM4" s="51"/>
+      <c r="FN4" s="51"/>
+      <c r="FO4" s="51"/>
+      <c r="FP4" s="51"/>
+      <c r="FQ4" s="51"/>
+      <c r="FR4" s="51"/>
+      <c r="FS4" s="51"/>
+      <c r="FT4" s="51"/>
+      <c r="FU4" s="51"/>
+      <c r="FV4" s="51"/>
+      <c r="FW4" s="51"/>
+      <c r="FX4" s="51"/>
+      <c r="FY4" s="51"/>
+      <c r="FZ4" s="51"/>
+      <c r="GA4" s="51"/>
+      <c r="GB4" s="51"/>
+      <c r="GC4" s="51"/>
+      <c r="GD4" s="51"/>
+      <c r="GE4" s="51"/>
+      <c r="GF4" s="51"/>
+      <c r="GG4" s="51"/>
+      <c r="GH4" s="51"/>
+      <c r="GI4" s="51"/>
+      <c r="GJ4" s="52"/>
+      <c r="GK4" s="50">
         <v>8</v>
       </c>
-      <c r="GL4" s="64"/>
-      <c r="GM4" s="64"/>
-      <c r="GN4" s="64"/>
-      <c r="GO4" s="64"/>
-      <c r="GP4" s="64"/>
-      <c r="GQ4" s="64"/>
-      <c r="GR4" s="64"/>
-      <c r="GS4" s="64"/>
-      <c r="GT4" s="64"/>
-      <c r="GU4" s="64"/>
-      <c r="GV4" s="64"/>
-      <c r="GW4" s="64"/>
-      <c r="GX4" s="64"/>
-      <c r="GY4" s="64"/>
-      <c r="GZ4" s="64"/>
-      <c r="HA4" s="64"/>
-      <c r="HB4" s="64"/>
-      <c r="HC4" s="64"/>
-      <c r="HD4" s="64"/>
-      <c r="HE4" s="64"/>
-      <c r="HF4" s="64"/>
-      <c r="HG4" s="64"/>
-      <c r="HH4" s="64"/>
-      <c r="HI4" s="64"/>
-      <c r="HJ4" s="64"/>
-      <c r="HK4" s="64"/>
-      <c r="HL4" s="64"/>
-      <c r="HM4" s="64"/>
-      <c r="HN4" s="64"/>
-      <c r="HO4" s="65"/>
-      <c r="HP4" s="63">
+      <c r="GL4" s="51"/>
+      <c r="GM4" s="51"/>
+      <c r="GN4" s="51"/>
+      <c r="GO4" s="51"/>
+      <c r="GP4" s="51"/>
+      <c r="GQ4" s="51"/>
+      <c r="GR4" s="51"/>
+      <c r="GS4" s="51"/>
+      <c r="GT4" s="51"/>
+      <c r="GU4" s="51"/>
+      <c r="GV4" s="51"/>
+      <c r="GW4" s="51"/>
+      <c r="GX4" s="51"/>
+      <c r="GY4" s="51"/>
+      <c r="GZ4" s="51"/>
+      <c r="HA4" s="51"/>
+      <c r="HB4" s="51"/>
+      <c r="HC4" s="51"/>
+      <c r="HD4" s="51"/>
+      <c r="HE4" s="51"/>
+      <c r="HF4" s="51"/>
+      <c r="HG4" s="51"/>
+      <c r="HH4" s="51"/>
+      <c r="HI4" s="51"/>
+      <c r="HJ4" s="51"/>
+      <c r="HK4" s="51"/>
+      <c r="HL4" s="51"/>
+      <c r="HM4" s="51"/>
+      <c r="HN4" s="51"/>
+      <c r="HO4" s="52"/>
+      <c r="HP4" s="50">
         <v>9</v>
       </c>
-      <c r="HQ4" s="64"/>
-      <c r="HR4" s="64"/>
-      <c r="HS4" s="64"/>
-      <c r="HT4" s="64"/>
-      <c r="HU4" s="64"/>
-      <c r="HV4" s="64"/>
-      <c r="HW4" s="64"/>
-      <c r="HX4" s="64"/>
-      <c r="HY4" s="64"/>
-      <c r="HZ4" s="64"/>
-      <c r="IA4" s="64"/>
-      <c r="IB4" s="64"/>
-      <c r="IC4" s="64"/>
-      <c r="ID4" s="64"/>
-      <c r="IE4" s="64"/>
-      <c r="IF4" s="64"/>
-      <c r="IG4" s="64"/>
-      <c r="IH4" s="64"/>
-      <c r="II4" s="64"/>
-      <c r="IJ4" s="64"/>
-      <c r="IK4" s="64"/>
-      <c r="IL4" s="64"/>
-      <c r="IM4" s="64"/>
-      <c r="IN4" s="64"/>
-      <c r="IO4" s="64"/>
-      <c r="IP4" s="64"/>
-      <c r="IQ4" s="64"/>
-      <c r="IR4" s="64"/>
-      <c r="IS4" s="65"/>
-      <c r="IT4" s="63">
+      <c r="HQ4" s="51"/>
+      <c r="HR4" s="51"/>
+      <c r="HS4" s="51"/>
+      <c r="HT4" s="51"/>
+      <c r="HU4" s="51"/>
+      <c r="HV4" s="51"/>
+      <c r="HW4" s="51"/>
+      <c r="HX4" s="51"/>
+      <c r="HY4" s="51"/>
+      <c r="HZ4" s="51"/>
+      <c r="IA4" s="51"/>
+      <c r="IB4" s="51"/>
+      <c r="IC4" s="51"/>
+      <c r="ID4" s="51"/>
+      <c r="IE4" s="51"/>
+      <c r="IF4" s="51"/>
+      <c r="IG4" s="51"/>
+      <c r="IH4" s="51"/>
+      <c r="II4" s="51"/>
+      <c r="IJ4" s="51"/>
+      <c r="IK4" s="51"/>
+      <c r="IL4" s="51"/>
+      <c r="IM4" s="51"/>
+      <c r="IN4" s="51"/>
+      <c r="IO4" s="51"/>
+      <c r="IP4" s="51"/>
+      <c r="IQ4" s="51"/>
+      <c r="IR4" s="51"/>
+      <c r="IS4" s="52"/>
+      <c r="IT4" s="50">
         <v>10</v>
       </c>
-      <c r="IU4" s="64"/>
-      <c r="IV4" s="64"/>
-      <c r="IW4" s="64"/>
-      <c r="IX4" s="64"/>
-      <c r="IY4" s="64"/>
-      <c r="IZ4" s="64"/>
-      <c r="JA4" s="64"/>
-      <c r="JB4" s="64"/>
-      <c r="JC4" s="64"/>
-      <c r="JD4" s="64"/>
-      <c r="JE4" s="64"/>
-      <c r="JF4" s="64"/>
-      <c r="JG4" s="64"/>
-      <c r="JH4" s="64"/>
-      <c r="JI4" s="64"/>
-      <c r="JJ4" s="64"/>
-      <c r="JK4" s="64"/>
-      <c r="JL4" s="64"/>
-      <c r="JM4" s="64"/>
-      <c r="JN4" s="64"/>
-      <c r="JO4" s="64"/>
-      <c r="JP4" s="64"/>
-      <c r="JQ4" s="64"/>
-      <c r="JR4" s="64"/>
-      <c r="JS4" s="64"/>
-      <c r="JT4" s="64"/>
-      <c r="JU4" s="64"/>
-      <c r="JV4" s="64"/>
-      <c r="JW4" s="64"/>
-      <c r="JX4" s="65"/>
-      <c r="JY4" s="63">
+      <c r="IU4" s="51"/>
+      <c r="IV4" s="51"/>
+      <c r="IW4" s="51"/>
+      <c r="IX4" s="51"/>
+      <c r="IY4" s="51"/>
+      <c r="IZ4" s="51"/>
+      <c r="JA4" s="51"/>
+      <c r="JB4" s="51"/>
+      <c r="JC4" s="51"/>
+      <c r="JD4" s="51"/>
+      <c r="JE4" s="51"/>
+      <c r="JF4" s="51"/>
+      <c r="JG4" s="51"/>
+      <c r="JH4" s="51"/>
+      <c r="JI4" s="51"/>
+      <c r="JJ4" s="51"/>
+      <c r="JK4" s="51"/>
+      <c r="JL4" s="51"/>
+      <c r="JM4" s="51"/>
+      <c r="JN4" s="51"/>
+      <c r="JO4" s="51"/>
+      <c r="JP4" s="51"/>
+      <c r="JQ4" s="51"/>
+      <c r="JR4" s="51"/>
+      <c r="JS4" s="51"/>
+      <c r="JT4" s="51"/>
+      <c r="JU4" s="51"/>
+      <c r="JV4" s="51"/>
+      <c r="JW4" s="51"/>
+      <c r="JX4" s="52"/>
+      <c r="JY4" s="50">
         <v>11</v>
       </c>
-      <c r="JZ4" s="64"/>
-      <c r="KA4" s="64"/>
-      <c r="KB4" s="64"/>
-      <c r="KC4" s="64"/>
-      <c r="KD4" s="64"/>
-      <c r="KE4" s="64"/>
-      <c r="KF4" s="64"/>
-      <c r="KG4" s="64"/>
-      <c r="KH4" s="64"/>
-      <c r="KI4" s="64"/>
-      <c r="KJ4" s="64"/>
-      <c r="KK4" s="64"/>
-      <c r="KL4" s="64"/>
-      <c r="KM4" s="64"/>
-      <c r="KN4" s="64"/>
-      <c r="KO4" s="64"/>
-      <c r="KP4" s="64"/>
-      <c r="KQ4" s="64"/>
-      <c r="KR4" s="64"/>
-      <c r="KS4" s="64"/>
-      <c r="KT4" s="64"/>
-      <c r="KU4" s="64"/>
-      <c r="KV4" s="64"/>
-      <c r="KW4" s="64"/>
-      <c r="KX4" s="64"/>
-      <c r="KY4" s="64"/>
-      <c r="KZ4" s="64"/>
-      <c r="LA4" s="64"/>
-      <c r="LB4" s="65"/>
-      <c r="LC4" s="63">
+      <c r="JZ4" s="51"/>
+      <c r="KA4" s="51"/>
+      <c r="KB4" s="51"/>
+      <c r="KC4" s="51"/>
+      <c r="KD4" s="51"/>
+      <c r="KE4" s="51"/>
+      <c r="KF4" s="51"/>
+      <c r="KG4" s="51"/>
+      <c r="KH4" s="51"/>
+      <c r="KI4" s="51"/>
+      <c r="KJ4" s="51"/>
+      <c r="KK4" s="51"/>
+      <c r="KL4" s="51"/>
+      <c r="KM4" s="51"/>
+      <c r="KN4" s="51"/>
+      <c r="KO4" s="51"/>
+      <c r="KP4" s="51"/>
+      <c r="KQ4" s="51"/>
+      <c r="KR4" s="51"/>
+      <c r="KS4" s="51"/>
+      <c r="KT4" s="51"/>
+      <c r="KU4" s="51"/>
+      <c r="KV4" s="51"/>
+      <c r="KW4" s="51"/>
+      <c r="KX4" s="51"/>
+      <c r="KY4" s="51"/>
+      <c r="KZ4" s="51"/>
+      <c r="LA4" s="51"/>
+      <c r="LB4" s="52"/>
+      <c r="LC4" s="50">
         <v>12</v>
       </c>
-      <c r="LD4" s="64"/>
-      <c r="LE4" s="64"/>
-      <c r="LF4" s="64"/>
-      <c r="LG4" s="64"/>
-      <c r="LH4" s="64"/>
-      <c r="LI4" s="64"/>
-      <c r="LJ4" s="64"/>
-      <c r="LK4" s="64"/>
-      <c r="LL4" s="64"/>
-      <c r="LM4" s="64"/>
-      <c r="LN4" s="64"/>
-      <c r="LO4" s="64"/>
-      <c r="LP4" s="64"/>
-      <c r="LQ4" s="64"/>
-      <c r="LR4" s="64"/>
-      <c r="LS4" s="64"/>
-      <c r="LT4" s="64"/>
-      <c r="LU4" s="64"/>
-      <c r="LV4" s="64"/>
-      <c r="LW4" s="64"/>
-      <c r="LX4" s="64"/>
-      <c r="LY4" s="64"/>
-      <c r="LZ4" s="64"/>
-      <c r="MA4" s="64"/>
-      <c r="MB4" s="64"/>
-      <c r="MC4" s="64"/>
-      <c r="MD4" s="64"/>
-      <c r="ME4" s="64"/>
-      <c r="MF4" s="64"/>
-      <c r="MG4" s="65"/>
+      <c r="LD4" s="51"/>
+      <c r="LE4" s="51"/>
+      <c r="LF4" s="51"/>
+      <c r="LG4" s="51"/>
+      <c r="LH4" s="51"/>
+      <c r="LI4" s="51"/>
+      <c r="LJ4" s="51"/>
+      <c r="LK4" s="51"/>
+      <c r="LL4" s="51"/>
+      <c r="LM4" s="51"/>
+      <c r="LN4" s="51"/>
+      <c r="LO4" s="51"/>
+      <c r="LP4" s="51"/>
+      <c r="LQ4" s="51"/>
+      <c r="LR4" s="51"/>
+      <c r="LS4" s="51"/>
+      <c r="LT4" s="51"/>
+      <c r="LU4" s="51"/>
+      <c r="LV4" s="51"/>
+      <c r="LW4" s="51"/>
+      <c r="LX4" s="51"/>
+      <c r="LY4" s="51"/>
+      <c r="LZ4" s="51"/>
+      <c r="MA4" s="51"/>
+      <c r="MB4" s="51"/>
+      <c r="MC4" s="51"/>
+      <c r="MD4" s="51"/>
+      <c r="ME4" s="51"/>
+      <c r="MF4" s="51"/>
+      <c r="MG4" s="52"/>
     </row>
     <row r="5" spans="1:345" ht="19.5" customHeight="1">
-      <c r="A5" s="53"/>
-      <c r="B5" s="57"/>
-      <c r="C5" s="58"/>
-      <c r="D5" s="53"/>
-      <c r="E5" s="52" t="s">
+      <c r="A5" s="59"/>
+      <c r="B5" s="69"/>
+      <c r="C5" s="70"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="52" t="s">
+      <c r="F5" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="52" t="s">
+      <c r="G5" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="52" t="s">
+      <c r="H5" s="53" t="s">
         <v>3</v>
       </c>
       <c r="I5" s="5"/>
-      <c r="J5" s="53"/>
+      <c r="J5" s="59"/>
       <c r="K5" s="6">
         <v>44927</v>
       </c>
@@ -4618,9 +4648,9 @@
     </row>
     <row r="6" spans="1:345">
       <c r="A6" s="54"/>
-      <c r="B6" s="59"/>
-      <c r="C6" s="60"/>
-      <c r="D6" s="53"/>
+      <c r="B6" s="71"/>
+      <c r="C6" s="72"/>
+      <c r="D6" s="59"/>
       <c r="E6" s="54"/>
       <c r="F6" s="54"/>
       <c r="G6" s="54"/>
@@ -5974,10 +6004,10 @@
       <c r="A7" s="11">
         <v>1</v>
       </c>
-      <c r="B7" s="68" t="s">
+      <c r="B7" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="69"/>
+      <c r="C7" s="56"/>
       <c r="D7" s="12" t="s">
         <v>12</v>
       </c>
@@ -5993,10 +6023,12 @@
       <c r="H7" s="13">
         <v>45034</v>
       </c>
-      <c r="I7" s="77">
+      <c r="I7" s="45">
         <v>100</v>
       </c>
-      <c r="J7" s="11"/>
+      <c r="J7" s="11" t="s">
+        <v>73</v>
+      </c>
       <c r="K7" s="14"/>
       <c r="L7" s="14"/>
       <c r="M7" s="15"/>
@@ -6337,10 +6369,10 @@
       <c r="A8" s="17">
         <v>2</v>
       </c>
-      <c r="B8" s="70" t="s">
+      <c r="B8" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="71"/>
+      <c r="C8" s="58"/>
       <c r="D8" s="12" t="s">
         <v>12</v>
       </c>
@@ -6354,10 +6386,12 @@
         <v>45035</v>
       </c>
       <c r="H8" s="13"/>
-      <c r="I8" s="77">
-        <v>50</v>
-      </c>
-      <c r="J8" s="17"/>
+      <c r="I8" s="45">
+        <v>80</v>
+      </c>
+      <c r="J8" s="17" t="s">
+        <v>74</v>
+      </c>
       <c r="K8" s="19"/>
       <c r="L8" s="19"/>
       <c r="M8" s="20"/>
@@ -6715,10 +6749,12 @@
         <v>45035</v>
       </c>
       <c r="H9" s="13"/>
-      <c r="I9" s="77">
-        <v>50</v>
-      </c>
-      <c r="J9" s="17"/>
+      <c r="I9" s="45">
+        <v>70</v>
+      </c>
+      <c r="J9" s="17" t="s">
+        <v>74</v>
+      </c>
       <c r="K9" s="19"/>
       <c r="L9" s="19"/>
       <c r="M9" s="20"/>
@@ -7076,10 +7112,12 @@
         <v>45035</v>
       </c>
       <c r="H10" s="13"/>
-      <c r="I10" s="77">
-        <v>50</v>
-      </c>
-      <c r="J10" s="17"/>
+      <c r="I10" s="45">
+        <v>70</v>
+      </c>
+      <c r="J10" s="17" t="s">
+        <v>74</v>
+      </c>
       <c r="K10" s="19"/>
       <c r="L10" s="19"/>
       <c r="M10" s="20"/>
@@ -7437,10 +7475,12 @@
         <v>45035</v>
       </c>
       <c r="H11" s="13"/>
-      <c r="I11" s="77">
-        <v>50</v>
-      </c>
-      <c r="J11" s="17"/>
+      <c r="I11" s="45">
+        <v>70</v>
+      </c>
+      <c r="J11" s="17" t="s">
+        <v>74</v>
+      </c>
       <c r="K11" s="19"/>
       <c r="L11" s="19"/>
       <c r="M11" s="20"/>
@@ -7794,10 +7834,16 @@
       <c r="F12" s="13">
         <v>45041</v>
       </c>
-      <c r="G12" s="18"/>
+      <c r="G12" s="13">
+        <v>45035</v>
+      </c>
       <c r="H12" s="18"/>
-      <c r="I12" s="77"/>
-      <c r="J12" s="17"/>
+      <c r="I12" s="45">
+        <v>20</v>
+      </c>
+      <c r="J12" s="17" t="s">
+        <v>74</v>
+      </c>
       <c r="K12" s="19"/>
       <c r="L12" s="19"/>
       <c r="M12" s="20"/>
@@ -8151,8 +8197,10 @@
       </c>
       <c r="G13" s="18"/>
       <c r="H13" s="18"/>
-      <c r="I13" s="77"/>
-      <c r="J13" s="17"/>
+      <c r="I13" s="45"/>
+      <c r="J13" s="17" t="s">
+        <v>75</v>
+      </c>
       <c r="K13" s="19"/>
       <c r="L13" s="19"/>
       <c r="M13" s="20"/>
@@ -8506,8 +8554,10 @@
       </c>
       <c r="G14" s="18"/>
       <c r="H14" s="18"/>
-      <c r="I14" s="77"/>
-      <c r="J14" s="17"/>
+      <c r="I14" s="45"/>
+      <c r="J14" s="17" t="s">
+        <v>75</v>
+      </c>
       <c r="K14" s="19"/>
       <c r="L14" s="19"/>
       <c r="M14" s="20"/>
@@ -8846,10 +8896,10 @@
     </row>
     <row r="15" spans="1:345">
       <c r="A15" s="17"/>
-      <c r="B15" s="66" t="s">
+      <c r="B15" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="67"/>
+      <c r="C15" s="47"/>
       <c r="D15" s="12" t="s">
         <v>12</v>
       </c>
@@ -8861,8 +8911,10 @@
       </c>
       <c r="G15" s="18"/>
       <c r="H15" s="18"/>
-      <c r="I15" s="77"/>
-      <c r="J15" s="17"/>
+      <c r="I15" s="45"/>
+      <c r="J15" s="17" t="s">
+        <v>75</v>
+      </c>
       <c r="K15" s="19"/>
       <c r="L15" s="19"/>
       <c r="M15" s="20"/>
@@ -9201,8 +9253,8 @@
     </row>
     <row r="16" spans="1:345">
       <c r="A16" s="17"/>
-      <c r="B16" s="66"/>
-      <c r="C16" s="67"/>
+      <c r="B16" s="46"/>
+      <c r="C16" s="47"/>
       <c r="D16" s="17"/>
       <c r="E16" s="18"/>
       <c r="F16" s="18"/>
@@ -9548,8 +9600,8 @@
     </row>
     <row r="17" spans="1:345">
       <c r="A17" s="17"/>
-      <c r="B17" s="66"/>
-      <c r="C17" s="67"/>
+      <c r="B17" s="46"/>
+      <c r="C17" s="47"/>
       <c r="D17" s="17"/>
       <c r="E17" s="18"/>
       <c r="F17" s="18"/>
@@ -9895,8 +9947,8 @@
     </row>
     <row r="18" spans="1:345">
       <c r="A18" s="17"/>
-      <c r="B18" s="66"/>
-      <c r="C18" s="67"/>
+      <c r="B18" s="46"/>
+      <c r="C18" s="47"/>
       <c r="D18" s="17"/>
       <c r="E18" s="18"/>
       <c r="F18" s="18"/>
@@ -10242,8 +10294,8 @@
     </row>
     <row r="19" spans="1:345">
       <c r="A19" s="17"/>
-      <c r="B19" s="66"/>
-      <c r="C19" s="67"/>
+      <c r="B19" s="46"/>
+      <c r="C19" s="47"/>
       <c r="D19" s="17"/>
       <c r="E19" s="18"/>
       <c r="F19" s="18"/>
@@ -10589,8 +10641,8 @@
     </row>
     <row r="20" spans="1:345">
       <c r="A20" s="17"/>
-      <c r="B20" s="66"/>
-      <c r="C20" s="67"/>
+      <c r="B20" s="46"/>
+      <c r="C20" s="47"/>
       <c r="D20" s="17"/>
       <c r="E20" s="17"/>
       <c r="F20" s="17"/>
@@ -10936,8 +10988,8 @@
     </row>
     <row r="21" spans="1:345">
       <c r="A21" s="17"/>
-      <c r="B21" s="66"/>
-      <c r="C21" s="67"/>
+      <c r="B21" s="46"/>
+      <c r="C21" s="47"/>
       <c r="D21" s="17"/>
       <c r="E21" s="17"/>
       <c r="F21" s="17"/>
@@ -11283,8 +11335,8 @@
     </row>
     <row r="22" spans="1:345">
       <c r="A22" s="17"/>
-      <c r="B22" s="66"/>
-      <c r="C22" s="67"/>
+      <c r="B22" s="46"/>
+      <c r="C22" s="47"/>
       <c r="D22" s="17"/>
       <c r="E22" s="17"/>
       <c r="F22" s="17"/>
@@ -11630,8 +11682,8 @@
     </row>
     <row r="23" spans="1:345">
       <c r="A23" s="17"/>
-      <c r="B23" s="66"/>
-      <c r="C23" s="67"/>
+      <c r="B23" s="46"/>
+      <c r="C23" s="47"/>
       <c r="D23" s="17"/>
       <c r="E23" s="17"/>
       <c r="F23" s="17"/>
@@ -11977,8 +12029,8 @@
     </row>
     <row r="24" spans="1:345">
       <c r="A24" s="17"/>
-      <c r="B24" s="66"/>
-      <c r="C24" s="67"/>
+      <c r="B24" s="46"/>
+      <c r="C24" s="47"/>
       <c r="D24" s="17"/>
       <c r="E24" s="17"/>
       <c r="F24" s="17"/>
@@ -12324,8 +12376,8 @@
     </row>
     <row r="25" spans="1:345">
       <c r="A25" s="17"/>
-      <c r="B25" s="66"/>
-      <c r="C25" s="67"/>
+      <c r="B25" s="46"/>
+      <c r="C25" s="47"/>
       <c r="D25" s="17"/>
       <c r="E25" s="17"/>
       <c r="F25" s="17"/>
@@ -12671,8 +12723,8 @@
     </row>
     <row r="26" spans="1:345">
       <c r="A26" s="17"/>
-      <c r="B26" s="66"/>
-      <c r="C26" s="67"/>
+      <c r="B26" s="46"/>
+      <c r="C26" s="47"/>
       <c r="D26" s="17"/>
       <c r="E26" s="17"/>
       <c r="F26" s="17"/>
@@ -13018,8 +13070,8 @@
     </row>
     <row r="27" spans="1:345">
       <c r="A27" s="17"/>
-      <c r="B27" s="66"/>
-      <c r="C27" s="67"/>
+      <c r="B27" s="46"/>
+      <c r="C27" s="47"/>
       <c r="D27" s="17"/>
       <c r="E27" s="17"/>
       <c r="F27" s="17"/>
@@ -13365,8 +13417,8 @@
     </row>
     <row r="28" spans="1:345">
       <c r="A28" s="17"/>
-      <c r="B28" s="66"/>
-      <c r="C28" s="67"/>
+      <c r="B28" s="46"/>
+      <c r="C28" s="47"/>
       <c r="D28" s="17"/>
       <c r="E28" s="17"/>
       <c r="F28" s="17"/>
@@ -13712,8 +13764,8 @@
     </row>
     <row r="29" spans="1:345">
       <c r="A29" s="17"/>
-      <c r="B29" s="66"/>
-      <c r="C29" s="67"/>
+      <c r="B29" s="46"/>
+      <c r="C29" s="47"/>
       <c r="D29" s="17"/>
       <c r="E29" s="17"/>
       <c r="F29" s="17"/>
@@ -14059,8 +14111,8 @@
     </row>
     <row r="30" spans="1:345">
       <c r="A30" s="17"/>
-      <c r="B30" s="66"/>
-      <c r="C30" s="67"/>
+      <c r="B30" s="46"/>
+      <c r="C30" s="47"/>
       <c r="D30" s="17"/>
       <c r="E30" s="17"/>
       <c r="F30" s="17"/>
@@ -14406,8 +14458,8 @@
     </row>
     <row r="31" spans="1:345">
       <c r="A31" s="17"/>
-      <c r="B31" s="66"/>
-      <c r="C31" s="67"/>
+      <c r="B31" s="46"/>
+      <c r="C31" s="47"/>
       <c r="D31" s="17"/>
       <c r="E31" s="17"/>
       <c r="F31" s="17"/>
@@ -14753,8 +14805,8 @@
     </row>
     <row r="32" spans="1:345">
       <c r="A32" s="17"/>
-      <c r="B32" s="66"/>
-      <c r="C32" s="67"/>
+      <c r="B32" s="46"/>
+      <c r="C32" s="47"/>
       <c r="D32" s="17"/>
       <c r="E32" s="17"/>
       <c r="F32" s="17"/>
@@ -15100,8 +15152,8 @@
     </row>
     <row r="33" spans="1:345">
       <c r="A33" s="17"/>
-      <c r="B33" s="66"/>
-      <c r="C33" s="67"/>
+      <c r="B33" s="46"/>
+      <c r="C33" s="47"/>
       <c r="D33" s="17"/>
       <c r="E33" s="17"/>
       <c r="F33" s="17"/>
@@ -15447,8 +15499,8 @@
     </row>
     <row r="34" spans="1:345">
       <c r="A34" s="17"/>
-      <c r="B34" s="66"/>
-      <c r="C34" s="67"/>
+      <c r="B34" s="46"/>
+      <c r="C34" s="47"/>
       <c r="D34" s="17"/>
       <c r="E34" s="17"/>
       <c r="F34" s="17"/>
@@ -15794,8 +15846,8 @@
     </row>
     <row r="35" spans="1:345">
       <c r="A35" s="17"/>
-      <c r="B35" s="66"/>
-      <c r="C35" s="67"/>
+      <c r="B35" s="46"/>
+      <c r="C35" s="47"/>
       <c r="D35" s="17"/>
       <c r="E35" s="17"/>
       <c r="F35" s="17"/>
@@ -16141,8 +16193,8 @@
     </row>
     <row r="36" spans="1:345">
       <c r="A36" s="17"/>
-      <c r="B36" s="66"/>
-      <c r="C36" s="67"/>
+      <c r="B36" s="46"/>
+      <c r="C36" s="47"/>
       <c r="D36" s="17"/>
       <c r="E36" s="17"/>
       <c r="F36" s="17"/>
@@ -16488,8 +16540,8 @@
     </row>
     <row r="37" spans="1:345">
       <c r="A37" s="17"/>
-      <c r="B37" s="66"/>
-      <c r="C37" s="67"/>
+      <c r="B37" s="46"/>
+      <c r="C37" s="47"/>
       <c r="D37" s="17"/>
       <c r="E37" s="17"/>
       <c r="F37" s="17"/>
@@ -16835,8 +16887,8 @@
     </row>
     <row r="38" spans="1:345">
       <c r="A38" s="30"/>
-      <c r="B38" s="72"/>
-      <c r="C38" s="73"/>
+      <c r="B38" s="48"/>
+      <c r="C38" s="49"/>
       <c r="D38" s="30"/>
       <c r="E38" s="30"/>
       <c r="F38" s="30"/>
@@ -20215,15 +20267,34 @@
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:H2"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="B4:C6"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="JY4:LB4"/>
+    <mergeCell ref="LC4:MG4"/>
+    <mergeCell ref="J4:J6"/>
+    <mergeCell ref="K4:AO4"/>
+    <mergeCell ref="AP4:BQ4"/>
+    <mergeCell ref="BR4:CV4"/>
+    <mergeCell ref="CW4:DZ4"/>
+    <mergeCell ref="EA4:FE4"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="FF4:GJ4"/>
+    <mergeCell ref="GK4:HO4"/>
+    <mergeCell ref="HP4:IS4"/>
+    <mergeCell ref="IT4:JX4"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
     <mergeCell ref="B29:C29"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B19:C19"/>
@@ -20236,34 +20307,15 @@
     <mergeCell ref="B26:C26"/>
     <mergeCell ref="B27:C27"/>
     <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="FF4:GJ4"/>
-    <mergeCell ref="GK4:HO4"/>
-    <mergeCell ref="HP4:IS4"/>
-    <mergeCell ref="IT4:JX4"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="JY4:LB4"/>
-    <mergeCell ref="LC4:MG4"/>
-    <mergeCell ref="J4:J6"/>
-    <mergeCell ref="K4:AO4"/>
-    <mergeCell ref="AP4:BQ4"/>
-    <mergeCell ref="BR4:CV4"/>
-    <mergeCell ref="CW4:DZ4"/>
-    <mergeCell ref="EA4:FE4"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:H2"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="B4:C6"/>
-    <mergeCell ref="D4:D6"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="K6:MG6">
@@ -20512,7 +20564,7 @@
   <dimension ref="B2:E22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -20524,12 +20576,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5">
-      <c r="B2" s="74" t="s">
+      <c r="B2" s="75" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="77"/>
     </row>
     <row r="3" spans="2:5">
       <c r="B3" s="42" t="s">
@@ -20714,8 +20766,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74929A5F-7429-4D88-9A30-E666C73A1AFB}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M90" sqref="M90"/>
+    <sheetView topLeftCell="A31" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J108" sqref="J108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -20730,7 +20782,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46DFBD6E-578C-490B-BB1C-3A0CEFDF1896}">
   <dimension ref="A1:A145"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A136" workbookViewId="0">
       <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
